--- a/Beer_blind/results.xlsx
+++ b/Beer_blind/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Retreat_2019\Beer_blind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91E937-B039-4545-9818-B72D4A759569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142AB99-051A-4FCB-9F30-CA4016687709}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{C81B9AA4-66ED-4EEE-9ACC-2F9EC43F2182}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C81B9AA4-66ED-4EEE-9ACC-2F9EC43F2182}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="26">
   <si>
     <t>heineken</t>
   </si>
@@ -103,13 +103,27 @@
   <si>
     <t>unp</t>
   </si>
+  <si>
+    <t>marc</t>
+  </si>
+  <si>
+    <t>raquel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,8 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A994C26B-03F5-4D2D-A712-A07701A63D56}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2802,7 +2817,351 @@
         <v>23</v>
       </c>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B162" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beer_blind/results.xlsx
+++ b/Beer_blind/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Retreat_2019\Beer_blind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142AB99-051A-4FCB-9F30-CA4016687709}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAEAF7-3BF3-4410-AC90-CDDD014B58F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C81B9AA4-66ED-4EEE-9ACC-2F9EC43F2182}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="21600" windowHeight="11265" xr2:uid="{C81B9AA4-66ED-4EEE-9ACC-2F9EC43F2182}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="27">
   <si>
     <t>heineken</t>
   </si>
@@ -109,21 +109,16 @@
   <si>
     <t>raquel</t>
   </si>
+  <si>
+    <t>paula</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A994C26B-03F5-4D2D-A712-A07701A63D56}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162:E171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -497,7 +492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -531,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -548,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -565,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -582,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -599,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -616,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -633,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -650,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -667,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -684,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -701,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -718,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -735,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -752,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -769,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -786,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -803,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -820,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -837,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -854,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -871,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -888,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -905,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -922,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -939,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -956,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -973,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -990,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1007,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1024,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1058,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1075,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1109,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1126,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1143,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1160,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1194,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1211,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1279,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1296,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1330,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1347,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1398,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1415,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1432,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1466,7 +1461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1500,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1517,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1534,7 +1529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1568,7 +1563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1619,7 +1614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1687,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1721,7 +1716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1738,7 +1733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1755,7 +1750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -1772,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -1789,7 +1784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -1806,7 +1801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1823,7 +1818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -1840,7 +1835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1874,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1908,7 +1903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1942,7 +1937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -1959,7 +1954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -1976,7 +1971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -1993,7 +1988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2061,7 +2056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2078,7 +2073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -2095,7 +2090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2129,7 +2124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2146,7 +2141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -2197,7 +2192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2214,7 +2209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2248,7 +2243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2265,7 +2260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -2299,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -2316,7 +2311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -2333,7 +2328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -2367,7 +2362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -2384,7 +2379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -2401,7 +2396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -2469,7 +2464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -2486,7 +2481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -2520,7 +2515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0</v>
       </c>
@@ -2537,7 +2532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -2551,7 +2546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2565,7 +2560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -2579,7 +2574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -2607,7 +2602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -2621,7 +2616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2635,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -2649,7 +2644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -2663,7 +2658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -2677,7 +2672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2691,7 +2686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -2705,7 +2700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -2719,7 +2714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -2733,7 +2728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -2747,7 +2742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -2761,7 +2756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -2775,7 +2770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -2789,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -2803,7 +2798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -2817,7 +2812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2834,7 +2829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0</v>
       </c>
@@ -2851,7 +2846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -2885,7 +2880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -2902,7 +2897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -2919,7 +2914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -2936,7 +2931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -2970,7 +2965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -2987,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -3004,7 +2999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -3021,7 +3016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3038,7 +3033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3055,7 +3050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -3072,7 +3067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -3089,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3106,7 +3101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3123,7 +3118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -3140,7 +3135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0</v>
       </c>
@@ -3157,8 +3152,175 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B162" s="1"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
